--- a/reports/vendas.xlsx
+++ b/reports/vendas.xlsx
@@ -82,7 +82,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView windowProtection="false" tabSelected="false" showWhiteSpace="false" showOutlineSymbols="false" showFormulas="false" rightToLeft="false" showZeros="true" showRuler="true" showRowColHeaders="true" showGridLines="true" defaultGridColor="true" zoomScale="100" workbookViewId="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0"/>
   </sheetViews>
@@ -173,7 +173,7 @@
       </c>
       <c r="B3" s="3" t="inlineStr">
         <is>
-          <t>Renato Nogueira</t>
+          <t>Bruna Santos</t>
         </is>
       </c>
       <c r="C3" s="3" t="inlineStr">
@@ -183,24 +183,24 @@
       </c>
       <c r="D3" s="3" t="inlineStr">
         <is>
-          <t>Avenida Radial Leste-Oeste, 2932 São Paulo</t>
+          <t>Avenida Ibirapuera, 3103 São Paulo</t>
         </is>
       </c>
       <c r="E3" s="3" t="inlineStr">
         <is>
-          <t>11/06/2014 às 02:38AM</t>
+          <t>11/07/2014 às 02:12AM</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="inlineStr">
         <is>
-          <t>Em Negociacao</t>
+          <t>Venda Concluida</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>Jessica Oliveira</t>
+          <t>Renato Nogueira</t>
         </is>
       </c>
       <c r="C4" s="3" t="inlineStr">
@@ -210,24 +210,24 @@
       </c>
       <c r="D4" s="3" t="inlineStr">
         <is>
-          <t>Avenida Itaquera, 345 São Paulo</t>
+          <t>Avenida Radial Leste-Oeste, 2932 São Paulo</t>
         </is>
       </c>
       <c r="E4" s="3" t="inlineStr">
         <is>
-          <t>11/06/2014 às 02:37AM</t>
+          <t>11/06/2014 às 02:38AM</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="inlineStr">
         <is>
-          <t>Venda Concluida</t>
+          <t>Venda cancelada</t>
         </is>
       </c>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>Caio Guilherme</t>
+          <t>Jessica Oliveira</t>
         </is>
       </c>
       <c r="C5" s="3" t="inlineStr">
@@ -237,19 +237,19 @@
       </c>
       <c r="D5" s="3" t="inlineStr">
         <is>
-          <t>Rua do Bosque, 635 São Paulo</t>
+          <t>Avenida Itaquera, 345 São Paulo</t>
         </is>
       </c>
       <c r="E5" s="3" t="inlineStr">
         <is>
-          <t>11/05/2014 às 09:02PM</t>
+          <t>11/06/2014 às 02:37AM</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="inlineStr">
         <is>
-          <t>Venda cancelada</t>
+          <t>Venda Concluida</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -269,32 +269,59 @@
       </c>
       <c r="E6" s="3" t="inlineStr">
         <is>
-          <t>11/05/2014 às 09:01PM</t>
+          <t>11/05/2014 às 09:02PM</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="3" t="inlineStr">
         <is>
+          <t>Venda cancelada</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>Caio Guilherme</t>
+        </is>
+      </c>
+      <c r="C7" s="3" t="inlineStr">
+        <is>
+          <t>Ricardo Santos</t>
+        </is>
+      </c>
+      <c r="D7" s="3" t="inlineStr">
+        <is>
+          <t>Rua do Bosque, 635 São Paulo</t>
+        </is>
+      </c>
+      <c r="E7" s="3" t="inlineStr">
+        <is>
+          <t>11/05/2014 às 09:01PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="3" t="inlineStr">
+        <is>
           <t>Venda Concluida</t>
         </is>
       </c>
-      <c r="B7" s="3" t="inlineStr">
+      <c r="B8" s="3" t="inlineStr">
         <is>
           <t>Caio Guilherme</t>
         </is>
       </c>
-      <c r="C7" s="3" t="inlineStr">
-        <is>
-          <t>Ricardo Santos</t>
-        </is>
-      </c>
-      <c r="D7" s="3" t="inlineStr">
+      <c r="C8" s="3" t="inlineStr">
+        <is>
+          <t>Ricardo Santos</t>
+        </is>
+      </c>
+      <c r="D8" s="3" t="inlineStr">
         <is>
           <t>Rua do Bosque, 635 São Paulo</t>
         </is>
       </c>
-      <c r="E7" s="3" t="inlineStr">
+      <c r="E8" s="3" t="inlineStr">
         <is>
           <t>11/05/2014 às 06:13PM</t>
         </is>
